--- a/fuction_ensemble_3/fixed_results.xlsx
+++ b/fuction_ensemble_3/fixed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,6 +971,762 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>model_24_9_8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H9" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N9" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P9" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R9" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>model_2_8_14</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.999992187636361</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9929823568752489</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9999999792930766</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9999999258332494</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9999999621547906</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.949167273715139</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2649.160279593511</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.008462013676762581</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01518506277352571</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01182353822514415</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0006915313058469639</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.7173139706283</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.999937501090888</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.790423581687943</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>39.83695429918672</v>
+      </c>
+      <c r="R10" t="n">
+        <v>65.43334662141892</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Hidden Size=[5], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>model_30_8_1</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9999798916619582</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9920799592153482</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9999912860188963</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9999514375878201</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9999912991856549</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.59089761078358</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2989.815396206057</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.854970594868064</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.154577646637335</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.5047741207527</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.007582843109937573</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.755158364011692</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.00001930400452</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.872451159531733</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>93.94610030658913</v>
+      </c>
+      <c r="R11" t="n">
+        <v>153.671015725131</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Hidden Size=[12], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>model_8_7_0</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9997581007167586</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9942930704440628</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9991719418988624</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9999816159005624</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9999890519567246</v>
+      </c>
+      <c r="H12" t="n">
+        <v>91.31697942361235</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2154.365907366299</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.722241007490078</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.45177151635289</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.087006261921485</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01626477638597697</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.555991807427022</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.005805582797793</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9.962810162299261</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>40.97132651143687</v>
+      </c>
+      <c r="R12" t="n">
+        <v>71.44322213314189</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Hidden Size=[6], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>model_38_7_24</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9996228785405012</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9923654502610046</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.999951498895257</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9999999999971473</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9999609371212409</v>
+      </c>
+      <c r="H13" t="n">
+        <v>142.3633509607986</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2882.042526470733</v>
+      </c>
+      <c r="J13" t="n">
+        <v>22.25018493272388</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.952292561531067e-07</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11.12509261164826</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.03608018069230119</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11.93161141509388</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.000274270152363</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12.43956481487503</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>104.08323480199</v>
+      </c>
+      <c r="R13" t="n">
+        <v>173.5591568194774</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>model_26_4_3</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9994234533115562</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9924212003350947</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.999913523046573</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9999999999898611</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9999201570513343</v>
+      </c>
+      <c r="H14" t="n">
+        <v>217.646374887526</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2860.996873501741</v>
+      </c>
+      <c r="J14" t="n">
+        <v>40.49756265059114</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.867301762303528e-07</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20.24916981847491</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.04177834619065011</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.75284294254928</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.000658910501079</v>
+      </c>
+      <c r="P14" t="n">
+        <v>15.38090200920857</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>79.23425677567501</v>
+      </c>
+      <c r="R14" t="n">
+        <v>134.083668894744</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Hidden Size=[11], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>model_35_7_20</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9976680892119211</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9907276899732727</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9998407683893979</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9999065008447229</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9998789068593676</v>
+      </c>
+      <c r="H15" t="n">
+        <v>880.2963224998115</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3500.297035089578</v>
+      </c>
+      <c r="J15" t="n">
+        <v>58.06455320422538</v>
+      </c>
+      <c r="K15" t="n">
+        <v>36.84860146441497</v>
+      </c>
+      <c r="L15" t="n">
+        <v>47.45597609574907</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1152202243137621</v>
+      </c>
+      <c r="N15" t="n">
+        <v>29.66978804271799</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.001929857203927</v>
+      </c>
+      <c r="P15" t="n">
+        <v>30.93289234462473</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>92.43948283819037</v>
+      </c>
+      <c r="R15" t="n">
+        <v>157.039901556205</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Hidden Size=[13], regularizer=0.05, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>model_18_8_24</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999120808381883</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.993368293836536</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9998087303952133</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9998677464268457</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9998557449108948</v>
+      </c>
+      <c r="H16" t="n">
+        <v>33.18948358390484</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2503.46907670764</v>
+      </c>
+      <c r="J16" t="n">
+        <v>56.39823384140618</v>
+      </c>
+      <c r="K16" t="n">
+        <v>150.1367359992585</v>
+      </c>
+      <c r="L16" t="n">
+        <v>103.2674849203323</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01379699485226435</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.761031468748008</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.000162312298729</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6.006290505351799</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>66.99553386755478</v>
+      </c>
+      <c r="R16" t="n">
+        <v>112.0939393876782</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Hidden Size=[9], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>model_118_8_22</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9999987961061981</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9999999910900658</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9999999535882388</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.05142131401225924</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.006023936904966831</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.02872262545861304</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R17" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>model_21_9_0</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999197326609552</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.992652573302916</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9998916382681973</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9999221223374015</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9999164517386357</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30.30092048939316</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2773.653578149225</v>
+      </c>
+      <c r="J18" t="n">
+        <v>98.80879856832325</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.176300647202879</v>
+      </c>
+      <c r="L18" t="n">
+        <v>53.99241118587088</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.03222094239256876</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.504627188955957</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.000275202305296</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.73897056453897</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>55.17764381751644</v>
+      </c>
+      <c r="R18" t="n">
+        <v>92.96279438843065</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Hidden Size=[4, 3], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>model_7_9_0</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9998326480363232</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9923832218103555</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9999225595991194</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9998541490986304</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9998911204576901</v>
+      </c>
+      <c r="H19" t="n">
+        <v>63.1753662879765</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2875.333766590793</v>
+      </c>
+      <c r="J19" t="n">
+        <v>13.79733842378482</v>
+      </c>
+      <c r="K19" t="n">
+        <v>39.84897306654602</v>
+      </c>
+      <c r="L19" t="n">
+        <v>26.82315574516542</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.04225721428789764</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.948293294033411</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.9991967105743514</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8.286668594795767</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>29.70817109750642</v>
+      </c>
+      <c r="R19" t="n">
+        <v>52.86681177000224</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 3], regularizer=0.05, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>model_29_6_0</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9994984885356603</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9938387948817379</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9999486632114739</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9998119424085081</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9998516841850127</v>
+      </c>
+      <c r="H20" t="n">
+        <v>189.3205777882411</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2325.85493214396</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5.169935459503904</v>
+      </c>
+      <c r="K20" t="n">
+        <v>66.00821461365558</v>
+      </c>
+      <c r="L20" t="n">
+        <v>35.58907503657974</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.08809317910641791</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13.7593814464256</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.000633488165482</v>
+      </c>
+      <c r="P20" t="n">
+        <v>14.3451468004461</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>75.51311648610645</v>
+      </c>
+      <c r="R20" t="n">
+        <v>127.9247769554391</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 9], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/fuction_ensemble_3/fixed_results.xlsx
+++ b/fuction_ensemble_3/fixed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1727,6 +1727,5235 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>model_9_9_15</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9999493739164377</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9933710541010295</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9997997003761476</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9997788619824562</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9997923202414796</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19.11134654477238</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2502.427076861346</v>
+      </c>
+      <c r="J21" t="n">
+        <v>16.05651859706268</v>
+      </c>
+      <c r="K21" t="n">
+        <v>25.94087157049216</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20.99869508377742</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.03433726508137511</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.371652610257633</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.000405008668499</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.557762912444759</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>48.09943556279088</v>
+      </c>
+      <c r="R21" t="n">
+        <v>81.0090828342323</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>model_37_9_24</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9999247079155449</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9932247156753158</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9999489145226289</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9999398657257508</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9999492902762881</v>
+      </c>
+      <c r="H22" t="n">
+        <v>28.42276188179849</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2557.669832568288</v>
+      </c>
+      <c r="J22" t="n">
+        <v>18.57851098291576</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7.687415284337476</v>
+      </c>
+      <c r="L22" t="n">
+        <v>13.13286763406359</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0078151748965132</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.331300205559474</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.000164273638811</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.55826469262298</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>63.30561940226195</v>
+      </c>
+      <c r="R22" t="n">
+        <v>105.966273272649</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>model_36_7_0</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9998966692235433</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9936100767477339</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.999725543053905</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9998663398042792</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9998650226221535</v>
+      </c>
+      <c r="H23" t="n">
+        <v>39.00736811242999</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2412.196027730451</v>
+      </c>
+      <c r="J23" t="n">
+        <v>12.17688278807327</v>
+      </c>
+      <c r="K23" t="n">
+        <v>147.0285125775263</v>
+      </c>
+      <c r="L23" t="n">
+        <v>79.60269768279977</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.01513279344468459</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.245587891658398</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.000165329242331</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6.511475498355558</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>70.67249889150975</v>
+      </c>
+      <c r="R23" t="n">
+        <v>118.2086560613696</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 8], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>model_18_3_0</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9998899525018405</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9936082214286897</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9999777789944964</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9999969508882316</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9999934704843301</v>
+      </c>
+      <c r="H24" t="n">
+        <v>41.54293055519461</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2412.896410669658</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.99239090597257</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.121024998603348</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.556707952287959</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.01231423783234019</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.445380559376972</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.9993397150110432</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6.71977375356675</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>32.54654527250092</v>
+      </c>
+      <c r="R24" t="n">
+        <v>56.92406176986493</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 2], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>model_9_9_14</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9999480527060715</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9934721585328025</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9998196278330164</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9998400386129954</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9998357074164695</v>
+      </c>
+      <c r="H25" t="n">
+        <v>19.6101034580171</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2464.260153867084</v>
+      </c>
+      <c r="J25" t="n">
+        <v>14.45908383582719</v>
+      </c>
+      <c r="K25" t="n">
+        <v>18.76447045430541</v>
+      </c>
+      <c r="L25" t="n">
+        <v>16.6117771450663</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.03494657232443671</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.428329646493935</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.000415578351428</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.61685280745128</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>48.04791016805425</v>
+      </c>
+      <c r="R25" t="n">
+        <v>80.95755743949567</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>model_9_9_13</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9999475649609859</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9934742254086469</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9998173812085073</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9998353323192171</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9998320867759638</v>
+      </c>
+      <c r="H26" t="n">
+        <v>19.79422722782939</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2463.479908235768</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14.63917887303978</v>
+      </c>
+      <c r="K26" t="n">
+        <v>19.31654812884517</v>
+      </c>
+      <c r="L26" t="n">
+        <v>16.97786350094248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.03505390052635673</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.449070377936203</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.000419480312113</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.638476514770278</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>48.02921931791943</v>
+      </c>
+      <c r="R26" t="n">
+        <v>80.93886658936084</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>model_9_9_12</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9999468400824053</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.993491462947148</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9998208982371863</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9998364805407884</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9998341470247782</v>
+      </c>
+      <c r="H27" t="n">
+        <v>20.06786889199167</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2456.972737451625</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14.35724506154656</v>
+      </c>
+      <c r="K27" t="n">
+        <v>19.18185456213541</v>
+      </c>
+      <c r="L27" t="n">
+        <v>16.76954981184099</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.03505838202179733</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.479717501360065</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.000425279340758</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.670428349686585</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>48.00176005317383</v>
+      </c>
+      <c r="R27" t="n">
+        <v>80.91140732461524</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>model_9_9_11</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9999422382640023</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9935524537173385</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9998243730061387</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9998568938749136</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9998473659598829</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21.80505533915012</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2433.948721704737</v>
+      </c>
+      <c r="J28" t="n">
+        <v>14.07869889540598</v>
+      </c>
+      <c r="K28" t="n">
+        <v>16.78724288591184</v>
+      </c>
+      <c r="L28" t="n">
+        <v>15.43297089065891</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.03474491917427774</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.669588347932837</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.000462093887982</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4.868382391284796</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>47.83571632159491</v>
+      </c>
+      <c r="R28" t="n">
+        <v>80.74536359303633</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>model_9_9_10</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9999418749876881</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9935721361499716</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9998301774682731</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9998676779244874</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9998559225841904</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21.94219214774667</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2426.518603385688</v>
+      </c>
+      <c r="J29" t="n">
+        <v>13.61339869955555</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15.52220647060312</v>
+      </c>
+      <c r="L29" t="n">
+        <v>14.56780258507933</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0347604062991238</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.684249368655204</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.000465000098496</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.88366756201181</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>47.82317726913545</v>
+      </c>
+      <c r="R29" t="n">
+        <v>80.73282454057686</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>model_9_9_9</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.999938849839006</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9935718707516515</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9998218403489144</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9998562049516296</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9998459623573215</v>
+      </c>
+      <c r="H30" t="n">
+        <v>23.08418577522038</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2426.618791251557</v>
+      </c>
+      <c r="J30" t="n">
+        <v>14.28172303014435</v>
+      </c>
+      <c r="K30" t="n">
+        <v>16.86805789289065</v>
+      </c>
+      <c r="L30" t="n">
+        <v>15.5748904615175</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0354478338390388</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.804600480291819</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.000489201287952</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5.009142269631944</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>47.72170443078421</v>
+      </c>
+      <c r="R30" t="n">
+        <v>80.63135170222561</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>model_9_9_8</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9999385193309757</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9935839308390448</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9998268378363409</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9998646631500585</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9998528498942175</v>
+      </c>
+      <c r="H31" t="n">
+        <v>23.2089525566995</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2422.066108260593</v>
+      </c>
+      <c r="J31" t="n">
+        <v>13.88111194432713</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15.87585835345089</v>
+      </c>
+      <c r="L31" t="n">
+        <v>14.87848514888901</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.03547832812963733</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.817567078588477</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.000491845352195</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5.022660882862648</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>47.71092381939596</v>
+      </c>
+      <c r="R31" t="n">
+        <v>80.62057109083737</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>model_9_9_7</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.999937908695143</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9935881336868762</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9998256661794829</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9998641356296123</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9998520794316341</v>
+      </c>
+      <c r="H32" t="n">
+        <v>23.43946758352219</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2420.479533204254</v>
+      </c>
+      <c r="J32" t="n">
+        <v>13.97503488720395</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15.93773979879916</v>
+      </c>
+      <c r="L32" t="n">
+        <v>14.95638734300155</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.03571844230707501</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.84143238964691</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.000496730438856</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.047542189620843</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>47.69115749912542</v>
+      </c>
+      <c r="R32" t="n">
+        <v>80.60080477056684</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>model_9_9_6</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9999355161978197</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9936012342117594</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9998160863280123</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9998524471203617</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9998415015451826</v>
+      </c>
+      <c r="H33" t="n">
+        <v>24.34263532303273</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2415.534085060818</v>
+      </c>
+      <c r="J33" t="n">
+        <v>14.74297973071225</v>
+      </c>
+      <c r="K33" t="n">
+        <v>17.30887498706579</v>
+      </c>
+      <c r="L33" t="n">
+        <v>16.02592735888902</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0364856647571276</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.933825627546309</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.000515870417442</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.143868798937989</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>47.61554129403669</v>
+      </c>
+      <c r="R33" t="n">
+        <v>80.5251885654781</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>model_9_9_5</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9999354439570756</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9936119190037368</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9998207617214953</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9998583809176437</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9998467970293506</v>
+      </c>
+      <c r="H34" t="n">
+        <v>24.3699062039703</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2411.500576089379</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14.36818850063719</v>
+      </c>
+      <c r="K34" t="n">
+        <v>16.61280347965658</v>
+      </c>
+      <c r="L34" t="n">
+        <v>15.49049599014688</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.03660364804684654</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.936588518802261</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.000516448343395</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5.146749312194681</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>47.61330196240408</v>
+      </c>
+      <c r="R34" t="n">
+        <v>80.52294923384549</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>model_9_9_2</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9999318433921826</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.993705435065114</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9998489937711604</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9999091169147484</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9998874197426038</v>
+      </c>
+      <c r="H35" t="n">
+        <v>25.72911945108324</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2376.198262919474</v>
+      </c>
+      <c r="J35" t="n">
+        <v>12.1050368193537</v>
+      </c>
+      <c r="K35" t="n">
+        <v>10.66115391929634</v>
+      </c>
+      <c r="L35" t="n">
+        <v>11.38309536932502</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.03415978666862936</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.072387943669455</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.00054525286254</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5.288329999722033</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>47.50475319389419</v>
+      </c>
+      <c r="R35" t="n">
+        <v>80.4144004653356</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>model_9_9_4</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9999315235820037</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9937337887553555</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9998478745708714</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9999022524348363</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9998829940874175</v>
+      </c>
+      <c r="H36" t="n">
+        <v>25.84984779361634</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2365.494744853297</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12.19475471251644</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11.46640031598508</v>
+      </c>
+      <c r="L36" t="n">
+        <v>11.83057751425076</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.03711291053362435</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.084274559228322</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.000547811343971</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5.300722653113928</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>47.49539057424832</v>
+      </c>
+      <c r="R36" t="n">
+        <v>80.40503784568973</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>model_9_9_3</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9999313417422749</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9937195805418549</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9998432909529038</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9999018900688506</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9998809668978751</v>
+      </c>
+      <c r="H37" t="n">
+        <v>25.91849229119717</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2370.858345449774</v>
+      </c>
+      <c r="J37" t="n">
+        <v>12.56218898785301</v>
+      </c>
+      <c r="K37" t="n">
+        <v>11.50890811090358</v>
+      </c>
+      <c r="L37" t="n">
+        <v>12.03554854937829</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.03704371171724181</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.091020751401154</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.000549266061801</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.3077560446541</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>47.49008659597125</v>
+      </c>
+      <c r="R37" t="n">
+        <v>80.39973386741266</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>model_9_9_1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.999931010803953</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9937101129783216</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9998471263702392</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9999090050517893</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9998866145984986</v>
+      </c>
+      <c r="H38" t="n">
+        <v>26.04342150773852</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2374.432350683601</v>
+      </c>
+      <c r="J38" t="n">
+        <v>12.25473234569654</v>
+      </c>
+      <c r="K38" t="n">
+        <v>10.67427614354528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>11.46450424462091</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.03440546503208484</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.103275566510055</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.000551913568376</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5.320532572613152</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>47.48046959396942</v>
+      </c>
+      <c r="R38" t="n">
+        <v>80.39011686541085</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>model_37_9_23</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9999236327350181</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.993227354925449</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9999496002772112</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9999421557594301</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9999503369624897</v>
+      </c>
+      <c r="H39" t="n">
+        <v>28.82864253066479</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2556.673515642992</v>
+      </c>
+      <c r="J39" t="n">
+        <v>18.32911918521859</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7.394663103856146</v>
+      </c>
+      <c r="L39" t="n">
+        <v>12.86179553321563</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.007846069014876951</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.369231093058371</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.000166619487233</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5.597810376530466</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>63.27726114952593</v>
+      </c>
+      <c r="R39" t="n">
+        <v>105.9379150199129</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>model_37_9_22</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9999225284055667</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9932299663376923</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9999502590694742</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9999444048371305</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9999513542398488</v>
+      </c>
+      <c r="H40" t="n">
+        <v>29.2455268985778</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2555.687707521158</v>
+      </c>
+      <c r="J40" t="n">
+        <v>18.08953290898353</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7.107146633323282</v>
+      </c>
+      <c r="L40" t="n">
+        <v>12.59833977115341</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.007876734074465269</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.407913359011754</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.000169028933309</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5.638139426628815</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>63.24854672912188</v>
+      </c>
+      <c r="R40" t="n">
+        <v>105.9092005995089</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>model_37_9_21</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9999213896181208</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9932326521130881</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9999509017768206</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9999466076785036</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.999952349181236</v>
+      </c>
+      <c r="H41" t="n">
+        <v>29.67541915938257</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2554.673827309247</v>
+      </c>
+      <c r="J41" t="n">
+        <v>17.85579631477594</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.825540899299085</v>
+      </c>
+      <c r="L41" t="n">
+        <v>12.34066860703751</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.007910234601900551</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5.447514952653417</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.000171513560464</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5.679426942098404</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>63.21936186920754</v>
+      </c>
+      <c r="R41" t="n">
+        <v>105.8800157395946</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>model_9_9_0</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9999203399446082</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9937456909991011</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9998077352521118</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9999132099076951</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9998734388002384</v>
+      </c>
+      <c r="H42" t="n">
+        <v>30.07167091041803</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2361.001647839298</v>
+      </c>
+      <c r="J42" t="n">
+        <v>15.41242285259068</v>
+      </c>
+      <c r="K42" t="n">
+        <v>10.18102026544511</v>
+      </c>
+      <c r="L42" t="n">
+        <v>12.7967215590179</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.03204522018897131</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.483764301136404</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.000637280443135</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5.717219500392806</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>47.1928328743732</v>
+      </c>
+      <c r="R42" t="n">
+        <v>80.10248014581462</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>model_37_9_20</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9999202159782775</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9932353286222398</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9999515118347536</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9999487541166374</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9999533072778235</v>
+      </c>
+      <c r="H43" t="n">
+        <v>30.1184682002291</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2553.663445104454</v>
+      </c>
+      <c r="J43" t="n">
+        <v>17.63393349596299</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6.551145614357665</v>
+      </c>
+      <c r="L43" t="n">
+        <v>12.09253955516033</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.007946376291792737</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.488029537113398</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.000174074229213</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.721666316295597</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>63.18972290985529</v>
+      </c>
+      <c r="R43" t="n">
+        <v>105.8503767802423</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 5], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>model_30_6_24</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9988777282457078</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9935883809600106</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9999970255210984</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.999995497907964</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9999973338498824</v>
+      </c>
+      <c r="H44" t="n">
+        <v>423.6575872453302</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2420.386187596024</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.10585791664198</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.2129137807060033</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.659385796519928</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.006573390695464187</v>
+      </c>
+      <c r="N44" t="n">
+        <v>20.58294408594966</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.000472535475492</v>
+      </c>
+      <c r="P44" t="n">
+        <v>21.45920262825663</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>149.9021488965716</v>
+      </c>
+      <c r="R44" t="n">
+        <v>248.6310907108958</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>model_8_3_20</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9997721709257285</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9943443624192276</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9999646949787623</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9999962745623202</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9999898252550659</v>
+      </c>
+      <c r="H45" t="n">
+        <v>86.00547553751618</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2135.003186741582</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.169232461135834</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.11201404244639</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2.140623251791112</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.05268574510733041</v>
+      </c>
+      <c r="N45" t="n">
+        <v>9.273913711994314</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.9995029183834075</v>
+      </c>
+      <c r="P45" t="n">
+        <v>9.668723418361829</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>17.09117807346479</v>
+      </c>
+      <c r="R45" t="n">
+        <v>32.93656379675139</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>model_22_5_0</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9997265199852563</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9915313268642235</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9999755750746506</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9999824394027167</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9999831762927722</v>
+      </c>
+      <c r="H46" t="n">
+        <v>103.2387055657431</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3196.924108755605</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.055471959989518</v>
+      </c>
+      <c r="K46" t="n">
+        <v>18.86609049909748</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10.46077085786965</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.03192838773786036</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10.16064493847428</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.000133949394977</v>
+      </c>
+      <c r="P46" t="n">
+        <v>10.59320462893974</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>136.7259123266721</v>
+      </c>
+      <c r="R46" t="n">
+        <v>225.7038475420508</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Hidden Size=[18], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>model_26_8_14</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.997369273474519</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9942275839785297</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9999920710244086</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9992695436623148</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9999592675193423</v>
+      </c>
+      <c r="H47" t="n">
+        <v>993.0992633690685</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2179.087048105047</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9.039961351081729</v>
+      </c>
+      <c r="K47" t="n">
+        <v>40.28809103742242</v>
+      </c>
+      <c r="L47" t="n">
+        <v>24.66402619425207</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.03990314455259792</v>
+      </c>
+      <c r="N47" t="n">
+        <v>31.51347748772053</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.001191272388897</v>
+      </c>
+      <c r="P47" t="n">
+        <v>32.85507146626431</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>140.1983387556799</v>
+      </c>
+      <c r="R47" t="n">
+        <v>234.0517772705313</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>model_36_6_0</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.99983217957971</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9925504056161839</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9999033557189023</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9999914608449685</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9999263828312049</v>
+      </c>
+      <c r="H48" t="n">
+        <v>63.35220865946263</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2812.221879890586</v>
+      </c>
+      <c r="J48" t="n">
+        <v>43.22823190153576</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.329479726264253</v>
+      </c>
+      <c r="L48" t="n">
+        <v>22.27885581390001</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.02813374067084879</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7.959410069814385</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.000066027706344</v>
+      </c>
+      <c r="P48" t="n">
+        <v>8.298258634736635</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>161.70258045889</v>
+      </c>
+      <c r="R48" t="n">
+        <v>265.307025572687</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Hidden Size=[21], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>model_14_9_0</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H49" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P49" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R49" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>model_14_9_4</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H50" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N50" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P50" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R50" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>model_14_9_7</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H51" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P51" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R51" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>model_14_9_8</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H52" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P52" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R52" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>model_14_9_9</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H53" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N53" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P53" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R53" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>model_14_9_10</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H54" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N54" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P54" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R54" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>model_14_9_12</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H55" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N55" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P55" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R55" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>model_14_9_19</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H56" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P56" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R56" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>model_14_9_20</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H57" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P57" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R57" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>model_14_9_21</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H58" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N58" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P58" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R58" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>model_14_9_22</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H59" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N59" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P59" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R59" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>model_14_9_23</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H60" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P60" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R60" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>model_14_9_24</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9998852539595831</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9935636134375297</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.9999982707167465</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9999999999992977</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9999994475814978</v>
+      </c>
+      <c r="H61" t="n">
+        <v>43.31663025740534</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2429.735927332525</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.1920477133244276</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.473817974328995e-07</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.09602393035311252</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.005008656582529132</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6.581537074073604</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.000067168413903</v>
+      </c>
+      <c r="P61" t="n">
+        <v>6.86172673297686</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>122.4629267362359</v>
+      </c>
+      <c r="R61" t="n">
+        <v>201.689855352669</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>model_24_9_0</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H62" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N62" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P62" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R62" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>model_24_9_1</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H63" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N63" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P63" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R63" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>model_24_9_5</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H64" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J64" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N64" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P64" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R64" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>model_24_9_6</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H65" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J65" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N65" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P65" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R65" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>model_24_9_7</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H66" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J66" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L66" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N66" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P66" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R66" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>model_24_9_9</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H67" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J67" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N67" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P67" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R67" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>model_24_9_10</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H68" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J68" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N68" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P68" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R68" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>model_24_9_11</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H69" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N69" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P69" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R69" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>model_24_9_13</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H70" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N70" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P70" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R70" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>model_24_9_14</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H71" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N71" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P71" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R71" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>model_24_9_15</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H72" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J72" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N72" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P72" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R72" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>model_24_9_16</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H73" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J73" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N73" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P73" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R73" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>model_24_9_17</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H74" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N74" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P74" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R74" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>model_24_9_18</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H75" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J75" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L75" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N75" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P75" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R75" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>model_24_9_19</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H76" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J76" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N76" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P76" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R76" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>model_24_9_20</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H77" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J77" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N77" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P77" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R77" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>model_24_9_21</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H78" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N78" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P78" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R78" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>model_24_9_22</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H79" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J79" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L79" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N79" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P79" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R79" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>model_24_9_23</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H80" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J80" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N80" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P80" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R80" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>model_24_9_24</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.9978655741283762</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9947922486835233</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.9999999999638428</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.9999999999982546</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.9999999999956094</v>
+      </c>
+      <c r="H81" t="n">
+        <v>805.7457665380091</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1965.92612196995</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6.915070117300554e-08</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="L81" t="n">
+        <v>5.04078343549659e-08</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.01520044360584701</v>
+      </c>
+      <c r="N81" t="n">
+        <v>28.38566128414149</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.003013307112881</v>
+      </c>
+      <c r="P81" t="n">
+        <v>29.59409765142678</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>68.61646346676432</v>
+      </c>
+      <c r="R81" t="n">
+        <v>118.5903722863605</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>model_18_4_0</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R82" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>model_18_4_1</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R83" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>model_18_4_2</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R84" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>model_18_4_3</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R85" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>model_18_4_4</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R86" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>model_18_4_8</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R87" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>model_18_4_9</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R88" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>model_18_4_10</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R89" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>model_18_4_11</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R90" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>model_18_4_12</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R91" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>model_18_4_13</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R92" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>model_18_4_14</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R93" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>model_18_4_15</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R94" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>model_18_4_16</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R95" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>model_18_4_17</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R96" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>model_18_4_18</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R97" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>model_18_4_19</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R98" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>model_18_4_20</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R99" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>model_18_4_21</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R100" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>model_18_4_22</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R101" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>model_18_4_23</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R102" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>model_18_4_24</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.9999976329375331</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.9930579544873804</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.9999995425850434</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.9999990675953569</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.999999537907715</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.8935660812631268</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2620.622181013896</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.4674745120573789</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.1043054850306482</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.2858899985440135</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.002968030022015975</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.9452862430307165</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.000056809499206</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.9855290354088171</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>50.22506997870457</v>
+      </c>
+      <c r="R103" t="n">
+        <v>80.69696560040958</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
